--- a/900 Task/進捗管理表.xlsx
+++ b/900 Task/進捗管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7FB2CF-AAF2-4B56-B0C2-E47492140638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8655F8AF-FF05-4D6E-8137-6E22A54B8ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,6 +1265,26 @@
     <xf numFmtId="177" fontId="20" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,26 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1362,7 +1362,37 @@
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="良い" xfId="15" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="102">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2272,608 +2302,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -2908,92 +2336,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3328,36 +2670,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3528,21 +2840,21 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ガントの表スタイル" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="149"/>
-      <tableStyleElement type="headerRow" dxfId="148"/>
-      <tableStyleElement type="firstRowStripe" dxfId="147"/>
-      <tableStyleElement type="secondRowStripe" dxfId="146"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
     <tableStyle name="作業リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="145"/>
-      <tableStyleElement type="headerRow" dxfId="144"/>
-      <tableStyleElement type="totalRow" dxfId="143"/>
-      <tableStyleElement type="firstColumn" dxfId="142"/>
-      <tableStyleElement type="lastColumn" dxfId="141"/>
-      <tableStyleElement type="firstRowStripe" dxfId="140"/>
-      <tableStyleElement type="secondRowStripe" dxfId="139"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="138"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="137"/>
+      <tableStyleElement type="wholeTable" dxfId="97"/>
+      <tableStyleElement type="headerRow" dxfId="96"/>
+      <tableStyleElement type="totalRow" dxfId="95"/>
+      <tableStyleElement type="firstColumn" dxfId="94"/>
+      <tableStyleElement type="lastColumn" dxfId="93"/>
+      <tableStyleElement type="firstRowStripe" dxfId="92"/>
+      <tableStyleElement type="secondRowStripe" dxfId="91"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="90"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="89"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3695,7 +3007,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G51" totalsRowShown="0" headerRowDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G51" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G51" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3705,9 +3017,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="マイルストーンの説明" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="カテゴリ" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="成果物" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="マイルストーンの説明" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="カテゴリ" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="成果物" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="進捗状況"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="開始日" dataCellStyle="日付"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="日数"/>
@@ -3993,7 +3305,7 @@
       <pane xSplit="8" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4013,27 +3325,27 @@
     <row r="1" spans="1:141" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:141" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
       <c r="U2" s="60"/>
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
@@ -4310,40 +3622,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
       <c r="W4" s="17"/>
-      <c r="X4" s="71" t="s">
+      <c r="X4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="17"/>
-      <c r="AC4" s="72" t="s">
+      <c r="AC4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
@@ -4680,7 +3992,7 @@
       <c r="BC6" s="40"/>
       <c r="BD6" s="40"/>
       <c r="BE6" s="40"/>
-      <c r="BF6" s="80" t="str">
+      <c r="BF6" s="72" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
         <v>7月</v>
       </c>
@@ -4711,85 +4023,85 @@
       <c r="CE6" s="40"/>
       <c r="CF6" s="40"/>
       <c r="CG6" s="40"/>
-      <c r="CH6" s="81" t="str">
+      <c r="CH6" s="73" t="str">
         <f ca="1">IF(OR(TEXT(CH7,"m月")=CA6,TEXT(CH7,"m月")=BT6,TEXT(CH7,"m月")=BM6),"",TEXT(CH7,"m月"))</f>
         <v>8月</v>
       </c>
-      <c r="CI6" s="81"/>
-      <c r="CJ6" s="81"/>
-      <c r="CK6" s="81"/>
-      <c r="CL6" s="81"/>
-      <c r="CM6" s="81"/>
-      <c r="CN6" s="81"/>
-      <c r="CO6" s="81" t="str">
+      <c r="CI6" s="73"/>
+      <c r="CJ6" s="73"/>
+      <c r="CK6" s="73"/>
+      <c r="CL6" s="73"/>
+      <c r="CM6" s="73"/>
+      <c r="CN6" s="73"/>
+      <c r="CO6" s="73" t="str">
         <f ca="1">IF(OR(TEXT(CO7,"m月")=CH6,TEXT(CO7,"m月")=CA6,TEXT(CO7,"m月")=BT6,TEXT(CO7,"m月")=BM6),"",TEXT(CO7,"m月"))</f>
         <v/>
       </c>
-      <c r="CP6" s="81"/>
-      <c r="CQ6" s="81"/>
-      <c r="CR6" s="81"/>
-      <c r="CS6" s="81"/>
-      <c r="CT6" s="81"/>
-      <c r="CU6" s="81"/>
-      <c r="CV6" s="81" t="str">
+      <c r="CP6" s="73"/>
+      <c r="CQ6" s="73"/>
+      <c r="CR6" s="73"/>
+      <c r="CS6" s="73"/>
+      <c r="CT6" s="73"/>
+      <c r="CU6" s="73"/>
+      <c r="CV6" s="73" t="str">
         <f ca="1">IF(OR(TEXT(CV7,"m月")=CO6,TEXT(CV7,"m月")=CH6,TEXT(CV7,"m月")=CA6,TEXT(CV7,"m月")=BT6),"",TEXT(CV7,"m月"))</f>
         <v/>
       </c>
-      <c r="CW6" s="81"/>
-      <c r="CX6" s="81"/>
-      <c r="CY6" s="81"/>
-      <c r="CZ6" s="81"/>
-      <c r="DA6" s="81"/>
-      <c r="DB6" s="82"/>
-      <c r="DC6" s="82" t="str">
+      <c r="CW6" s="73"/>
+      <c r="CX6" s="73"/>
+      <c r="CY6" s="73"/>
+      <c r="CZ6" s="73"/>
+      <c r="DA6" s="73"/>
+      <c r="DB6" s="74"/>
+      <c r="DC6" s="74" t="str">
         <f ca="1">IF(OR(TEXT(DC7,"m月")=CV6,TEXT(DC7,"m月")=CO6,TEXT(DC7,"m月")=CH6,TEXT(DC7,"m月")=CA6),"",TEXT(DC7,"m月"))</f>
         <v/>
       </c>
-      <c r="DD6" s="82"/>
-      <c r="DE6" s="82"/>
-      <c r="DF6" s="83"/>
-      <c r="DG6" s="84"/>
-      <c r="DH6" s="84"/>
-      <c r="DI6" s="84"/>
-      <c r="DJ6" s="84"/>
-      <c r="DK6" s="84"/>
-      <c r="DL6" s="84"/>
-      <c r="DM6" s="85" t="str">
+      <c r="DD6" s="74"/>
+      <c r="DE6" s="74"/>
+      <c r="DF6" s="75"/>
+      <c r="DG6" s="76"/>
+      <c r="DH6" s="76"/>
+      <c r="DI6" s="76"/>
+      <c r="DJ6" s="76"/>
+      <c r="DK6" s="76"/>
+      <c r="DL6" s="76"/>
+      <c r="DM6" s="77" t="str">
         <f ca="1">IF(OR(TEXT(DM7,"m月")=DF6,TEXT(DM7,"m月")=CY6,TEXT(DM7,"m月")=CR6),"",TEXT(DM7,"m月"))</f>
         <v>9月</v>
       </c>
-      <c r="DN6" s="85"/>
-      <c r="DO6" s="85"/>
-      <c r="DP6" s="85"/>
-      <c r="DQ6" s="85"/>
-      <c r="DR6" s="85"/>
-      <c r="DS6" s="85"/>
-      <c r="DT6" s="85" t="str">
+      <c r="DN6" s="77"/>
+      <c r="DO6" s="77"/>
+      <c r="DP6" s="77"/>
+      <c r="DQ6" s="77"/>
+      <c r="DR6" s="77"/>
+      <c r="DS6" s="77"/>
+      <c r="DT6" s="77" t="str">
         <f ca="1">IF(OR(TEXT(DT7,"m月")=DM6,TEXT(DT7,"m月")=DF6,TEXT(DT7,"m月")=CY6,TEXT(DT7,"m月")=CR6),"",TEXT(DT7,"m月"))</f>
         <v/>
       </c>
-      <c r="DU6" s="85"/>
-      <c r="DV6" s="85"/>
-      <c r="DW6" s="85"/>
-      <c r="DX6" s="85"/>
-      <c r="DY6" s="85"/>
-      <c r="DZ6" s="85"/>
-      <c r="EA6" s="85" t="str">
+      <c r="DU6" s="77"/>
+      <c r="DV6" s="77"/>
+      <c r="DW6" s="77"/>
+      <c r="DX6" s="77"/>
+      <c r="DY6" s="77"/>
+      <c r="DZ6" s="77"/>
+      <c r="EA6" s="77" t="str">
         <f ca="1">IF(OR(TEXT(EA7,"m月")=DT6,TEXT(EA7,"m月")=DM6,TEXT(EA7,"m月")=DF6,TEXT(EA7,"m月")=CY6),"",TEXT(EA7,"m月"))</f>
         <v/>
       </c>
-      <c r="EB6" s="85"/>
-      <c r="EC6" s="85"/>
-      <c r="ED6" s="85"/>
-      <c r="EE6" s="85"/>
-      <c r="EF6" s="85"/>
-      <c r="EG6" s="86"/>
-      <c r="EH6" s="86" t="str">
+      <c r="EB6" s="77"/>
+      <c r="EC6" s="77"/>
+      <c r="ED6" s="77"/>
+      <c r="EE6" s="77"/>
+      <c r="EF6" s="77"/>
+      <c r="EG6" s="78"/>
+      <c r="EH6" s="78" t="str">
         <f ca="1">IF(OR(TEXT(EH7,"m月")=EA6,TEXT(EH7,"m月")=DT6,TEXT(EH7,"m月")=DM6,TEXT(EH7,"m月")=DF6),"",TEXT(EH7,"m月"))</f>
         <v/>
       </c>
-      <c r="EI6" s="86"/>
-      <c r="EJ6" s="86"/>
+      <c r="EI6" s="78"/>
+      <c r="EJ6" s="78"/>
       <c r="EK6" s="39"/>
     </row>
     <row r="7" spans="1:141" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6715,7 +6027,7 @@
       <c r="C12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="71" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -7267,7 +6579,7 @@
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="49">
         <v>44332</v>
@@ -8353,7 +7665,7 @@
       <c r="C15" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="71" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="48" t="s">
@@ -9451,7 +8763,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="47"/>
-      <c r="D17" s="79"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
@@ -9993,7 +9305,7 @@
       <c r="C18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="71" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="48" t="s">
@@ -11097,7 +10409,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="51"/>
       <c r="I20" s="13" t="str">
-        <f t="shared" ref="I20:X50" ca="1" si="92">IF(AND($C20="目標",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="I20:X29" ca="1" si="92">IF(AND($C20="目標",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="13" t="str">
@@ -11161,7 +10473,7 @@
         <v/>
       </c>
       <c r="Y20" s="13" t="str">
-        <f t="shared" ref="Y20:AM50" ca="1" si="93">IF(AND($C20="目標",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="Y20:AM29" ca="1" si="93">IF(AND($C20="目標",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",Y$7&gt;=$F20,Y$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Z20" s="13" t="str">
@@ -11221,7 +10533,7 @@
         <v/>
       </c>
       <c r="AN20" s="13" t="str">
-        <f t="shared" ref="AN20:BC50" ca="1" si="94">IF(AND($C20="目標",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AN20:BC29" ca="1" si="94">IF(AND($C20="目標",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AO20" s="13" t="str">
@@ -11285,7 +10597,7 @@
         <v/>
       </c>
       <c r="BD20" s="13" t="str">
-        <f t="shared" ref="BD20:BR50" ca="1" si="95">IF(AND($C20="目標",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="BD20:BR29" ca="1" si="95">IF(AND($C20="目標",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),2,IF(AND($C20="マイルストーン",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BE20" s="13" t="str">
@@ -13271,7 +12583,7 @@
       <c r="C24" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="71" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="48" t="s">
@@ -14911,7 +14223,7 @@
       <c r="C27" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="71" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="48" t="s">
@@ -16551,7 +15863,7 @@
       <c r="C30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="48"/>
       <c r="F30" s="49">
         <f>F27+7</f>
@@ -16562,7 +15874,7 @@
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="13" t="str">
-        <f t="shared" ref="I30:X50" ca="1" si="99">IF(AND($C30="目標",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="I30:X45" ca="1" si="99">IF(AND($C30="目標",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="13" t="str">
@@ -16626,7 +15938,7 @@
         <v/>
       </c>
       <c r="Y30" s="13" t="str">
-        <f t="shared" ref="Y30:AN50" ca="1" si="100">IF(AND($C30="目標",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="Y30:AN45" ca="1" si="100">IF(AND($C30="目標",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Z30" s="13" t="str">
@@ -16690,7 +16002,7 @@
         <v/>
       </c>
       <c r="AO30" s="13" t="str">
-        <f t="shared" ref="AO30:BD50" ca="1" si="101">IF(AND($C30="目標",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AO30:BD44" ca="1" si="101">IF(AND($C30="目標",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="13" t="str">
@@ -16754,7 +16066,7 @@
         <v/>
       </c>
       <c r="BE30" s="13" t="str">
-        <f t="shared" ref="BD30:BR50" ca="1" si="102">IF(AND($C30="目標",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="BD30:BR47" ca="1" si="102">IF(AND($C30="目標",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="マイルストーン",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BF30" s="13">
@@ -18187,7 +17499,7 @@
       <c r="C33" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="79"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="48"/>
       <c r="F33" s="49">
         <f>F30+7</f>
@@ -19823,7 +19135,7 @@
       <c r="C36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="71" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="48"/>
@@ -23099,7 +22411,7 @@
       <c r="C42" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="79"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="48"/>
       <c r="F42" s="49">
         <f>F39+21</f>
@@ -24735,7 +24047,7 @@
       <c r="C45" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="71" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="48"/>
@@ -26373,7 +25685,7 @@
       <c r="C48" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="79"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
       <c r="G48" s="50"/>
@@ -28168,39 +27480,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL25 I51:BL51">
-    <cfRule type="expression" dxfId="132" priority="161">
+    <cfRule type="expression" dxfId="88" priority="161">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="131" priority="164">
+    <cfRule type="expression" dxfId="87" priority="164">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="130" priority="163">
+    <cfRule type="expression" dxfId="86" priority="163">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="129" priority="162">
+    <cfRule type="expression" dxfId="85" priority="162">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL25">
-    <cfRule type="expression" dxfId="128" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="167" stopIfTrue="1">
       <formula>AND($C10="低リスク",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="168" stopIfTrue="1">
       <formula>AND($C10="高リスク",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="169" stopIfTrue="1">
       <formula>AND($C10="順調",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="170" stopIfTrue="1">
       <formula>AND($C10="中リスク",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="171" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28219,24 +27531,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL28">
-    <cfRule type="expression" dxfId="123" priority="153">
+    <cfRule type="expression" dxfId="79" priority="153">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL28">
-    <cfRule type="expression" dxfId="122" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="154" stopIfTrue="1">
       <formula>AND($C26="低リスク",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="155" stopIfTrue="1">
       <formula>AND($C26="高リスク",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="156" stopIfTrue="1">
       <formula>AND($C26="順調",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="157" stopIfTrue="1">
       <formula>AND($C26="中リスク",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="158" stopIfTrue="1">
       <formula>AND(LEN($C26)=0,I$7&gt;=$F26,I$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28255,24 +27567,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="117" priority="145">
+    <cfRule type="expression" dxfId="73" priority="145">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="116" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="146" stopIfTrue="1">
       <formula>AND($C29="低リスク",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="147" stopIfTrue="1">
       <formula>AND($C29="高リスク",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="148" stopIfTrue="1">
       <formula>AND($C29="順調",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="149" stopIfTrue="1">
       <formula>AND($C29="中リスク",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="150" stopIfTrue="1">
       <formula>AND(LEN($C29)=0,I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28305,78 +27617,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM7:BR25 BM51:BR51">
-    <cfRule type="expression" dxfId="105" priority="126">
+    <cfRule type="expression" dxfId="67" priority="126">
       <formula>AND(TODAY()&gt;=BM$7,TODAY()&lt;BN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BR6">
-    <cfRule type="expression" dxfId="104" priority="128">
+    <cfRule type="expression" dxfId="66" priority="128">
       <formula>AND(BM$7&lt;=EOMONTH($I$7,2),BM$7&gt;EOMONTH($I$7,0),BM$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BR6">
-    <cfRule type="expression" dxfId="103" priority="127">
+    <cfRule type="expression" dxfId="65" priority="127">
       <formula>AND(BM$7&lt;=EOMONTH($I$7,1),BM$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM10:BR25">
-    <cfRule type="expression" dxfId="102" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="129" stopIfTrue="1">
       <formula>AND($C10="低リスク",BM$7&gt;=$F10,BM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="130" stopIfTrue="1">
       <formula>AND($C10="高リスク",BM$7&gt;=$F10,BM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="131" stopIfTrue="1">
       <formula>AND($C10="順調",BM$7&gt;=$F10,BM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="132" stopIfTrue="1">
       <formula>AND($C10="中リスク",BM$7&gt;=$F10,BM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="133" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,BM$7&gt;=$F10,BM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM26:BR28">
-    <cfRule type="expression" dxfId="97" priority="119">
+    <cfRule type="expression" dxfId="59" priority="119">
       <formula>AND(TODAY()&gt;=BM$7,TODAY()&lt;BN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM26:BR28">
-    <cfRule type="expression" dxfId="96" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="120" stopIfTrue="1">
       <formula>AND($C26="低リスク",BM$7&gt;=$F26,BM$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="121" stopIfTrue="1">
       <formula>AND($C26="高リスク",BM$7&gt;=$F26,BM$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="122" stopIfTrue="1">
       <formula>AND($C26="順調",BM$7&gt;=$F26,BM$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="123" stopIfTrue="1">
       <formula>AND($C26="中リスク",BM$7&gt;=$F26,BM$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="124" stopIfTrue="1">
       <formula>AND(LEN($C26)=0,BM$7&gt;=$F26,BM$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM29:BR29">
-    <cfRule type="expression" dxfId="91" priority="112">
+    <cfRule type="expression" dxfId="53" priority="112">
       <formula>AND(TODAY()&gt;=BM$7,TODAY()&lt;BN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM29:BR29">
-    <cfRule type="expression" dxfId="90" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="113" stopIfTrue="1">
       <formula>AND($C29="低リスク",BM$7&gt;=$F29,BM$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="114" stopIfTrue="1">
       <formula>AND($C29="高リスク",BM$7&gt;=$F29,BM$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="115" stopIfTrue="1">
       <formula>AND($C29="順調",BM$7&gt;=$F29,BM$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="116" stopIfTrue="1">
       <formula>AND($C29="中リスク",BM$7&gt;=$F29,BM$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="117" stopIfTrue="1">
       <formula>AND(LEN($C29)=0,BM$7&gt;=$F29,BM$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28535,174 +27847,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL50">
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL50">
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="46" stopIfTrue="1">
       <formula>AND($C30="低リスク",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
       <formula>AND($C30="高リスク",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
       <formula>AND($C30="順調",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="49" stopIfTrue="1">
       <formula>AND($C30="中リスク",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="50" stopIfTrue="1">
       <formula>AND(LEN($C30)=0,I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM30:BR50">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>AND(TODAY()&gt;=BM$7,TODAY()&lt;BN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM30:BR50">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
       <formula>AND($C30="低リスク",BM$7&gt;=$F30,BM$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>AND($C30="高リスク",BM$7&gt;=$F30,BM$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
       <formula>AND($C30="順調",BM$7&gt;=$F30,BM$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
       <formula>AND($C30="中リスク",BM$7&gt;=$F30,BM$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="43" stopIfTrue="1">
       <formula>AND(LEN($C30)=0,BM$7&gt;=$F30,BM$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS7:EJ25 BS51:EJ51">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="35" priority="28">
       <formula>AND(TODAY()&gt;=BS$7,TODAY()&lt;BT$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:CG6 DG6:DL6">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>AND(BS$7&lt;=EOMONTH($I$7,2),BS$7&gt;EOMONTH($I$7,0),BS$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:CG6 DG6:DL6">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>AND(BS$7&lt;=EOMONTH($I$7,1),BS$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS10:EJ25">
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>AND($C10="低リスク",BS$7&gt;=$F10,BS$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>AND($C10="高リスク",BS$7&gt;=$F10,BS$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>AND($C10="順調",BS$7&gt;=$F10,BS$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>AND($C10="中リスク",BS$7&gt;=$F10,BS$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,BS$7&gt;=$F10,BS$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS26:EJ28">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND(TODAY()&gt;=BS$7,TODAY()&lt;BT$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS26:EJ28">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
       <formula>AND($C26="低リスク",BS$7&gt;=$F26,BS$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>AND($C26="高リスク",BS$7&gt;=$F26,BS$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>AND($C26="順調",BS$7&gt;=$F26,BS$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>AND($C26="中リスク",BS$7&gt;=$F26,BS$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>AND(LEN($C26)=0,BS$7&gt;=$F26,BS$7&lt;=$F26+$G26-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS29:EJ29">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>AND(TODAY()&gt;=BS$7,TODAY()&lt;BT$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS29:EJ29">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
       <formula>AND($C29="低リスク",BS$7&gt;=$F29,BS$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>AND($C29="高リスク",BS$7&gt;=$F29,BS$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
       <formula>AND($C29="順調",BS$7&gt;=$F29,BS$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>AND($C29="中リスク",BS$7&gt;=$F29,BS$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>AND(LEN($C29)=0,BS$7&gt;=$F29,BS$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS30:EJ50">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND(TODAY()&gt;=BS$7,TODAY()&lt;BT$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS30:EJ50">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
       <formula>AND($C30="低リスク",BS$7&gt;=$F30,BS$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>AND($C30="高リスク",BS$7&gt;=$F30,BS$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>AND($C30="順調",BS$7&gt;=$F30,BS$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND($C30="中リスク",BS$7&gt;=$F30,BS$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>AND(LEN($C30)=0,BS$7&gt;=$F30,BS$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH6:CQ6">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>CH$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH6:DF6">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(CH$7&lt;=EOMONTH($I$7,2),CH$7&gt;EOMONTH($I$7,0),CH$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH6:DF6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(CH$7&lt;=EOMONTH($I$7,1),CH$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM6:DV6">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>DM$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM6:EK6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(DM$7&lt;=EOMONTH($I$7,2),DM$7&gt;EOMONTH($I$7,0),DM$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM6:EK6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(DM$7&lt;=EOMONTH($I$7,1),DM$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28791,44 +28103,6 @@
           <xm:sqref>E9:E22 E50:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{5AD67FB9-23B4-4F54-BD80-7A6CF9720346}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I51:BL51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="232" id="{67763332-2AE9-4F93-8BB7-5ECDB6B99BA2}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I10:BL25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{273B6C16-5292-42C6-BF78-526C7BC34565}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -28844,25 +28118,6 @@
           <xm:sqref>E23:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="159" id="{702F32AD-351C-486B-B573-EB6B749235FA}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I26:BL28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2A5CF5E-24AB-4033-94B9-21850C465FE9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -28876,25 +28131,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E26:E28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="151" id="{E58002D9-E35C-4DA2-80A1-5902606FAEA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I29:BL29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD786F39-5D77-4EC0-BDBE-08FD90A92843}">
@@ -28925,82 +28161,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E32:E33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="134" id="{C7CB8A56-2A46-479D-9791-49D9196E15B1}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>BM51:BR51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="135" id="{19B8596D-33B2-4676-A1AB-9DC0D8D81B12}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>BM10:BR25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="125" id="{92B95465-6C92-42C7-802F-AED67983373D}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>BM26:BR28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="118" id="{5B49164B-7DFD-4327-B100-201BD6EF78CC}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>BM29:BR29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{99563796-C1FD-4030-BD85-3EB4364FA8D3}">
@@ -29168,6 +28328,158 @@
           <xm:sqref>E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{5AD67FB9-23B4-4F54-BD80-7A6CF9720346}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I51:BL51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="232" id="{67763332-2AE9-4F93-8BB7-5ECDB6B99BA2}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10:BL25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="159" id="{702F32AD-351C-486B-B573-EB6B749235FA}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I26:BL28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="151" id="{E58002D9-E35C-4DA2-80A1-5902606FAEA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I29:BL29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="134" id="{C7CB8A56-2A46-479D-9791-49D9196E15B1}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>BM51:BR51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="135" id="{19B8596D-33B2-4676-A1AB-9DC0D8D81B12}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>BM10:BR25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="125" id="{92B95465-6C92-42C7-802F-AED67983373D}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>BM26:BR28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="118" id="{5B49164B-7DFD-4327-B100-201BD6EF78CC}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>BM29:BR29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="51" id="{4FF3F891-213B-44D5-ABF0-F2D97F2B1ABA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -29307,15 +28619,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -29332,6 +28635,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29611,14 +28923,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -29626,6 +28930,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
